--- a/Code/Results/Cases/Case_3_194/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_194/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.93490242157299</v>
+        <v>13.96787706683382</v>
       </c>
       <c r="C2">
-        <v>7.824234803489456</v>
+        <v>10.01888404129415</v>
       </c>
       <c r="D2">
-        <v>5.262625044105832</v>
+        <v>8.275664005662895</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.40364606189766</v>
+        <v>40.86700472923994</v>
       </c>
       <c r="G2">
-        <v>2.137149612384083</v>
+        <v>3.710722115901969</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.755911941091193</v>
+        <v>11.29545613467541</v>
       </c>
       <c r="K2">
-        <v>10.41261003920411</v>
+        <v>9.978001582170828</v>
       </c>
       <c r="L2">
-        <v>6.646283726302308</v>
+        <v>11.28768206590767</v>
       </c>
       <c r="M2">
-        <v>10.00734887047031</v>
+        <v>15.73606501363036</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>20.61552458595808</v>
+        <v>31.42334705877943</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.1625428004298</v>
+        <v>13.80228454092903</v>
       </c>
       <c r="C3">
-        <v>7.822282367481714</v>
+        <v>10.01754690130858</v>
       </c>
       <c r="D3">
-        <v>5.122133371121995</v>
+        <v>8.267710291138874</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.34606015440277</v>
+        <v>40.9612298958267</v>
       </c>
       <c r="G3">
-        <v>2.142167864242184</v>
+        <v>3.712618085478408</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.811208052000187</v>
+        <v>11.31700655144978</v>
       </c>
       <c r="K3">
-        <v>9.822108182250942</v>
+        <v>9.851033364114198</v>
       </c>
       <c r="L3">
-        <v>6.576311460231977</v>
+        <v>11.2961030625683</v>
       </c>
       <c r="M3">
-        <v>9.720433076647419</v>
+        <v>15.71755528567898</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>20.68906244842918</v>
+        <v>31.51116197091622</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.66645508541034</v>
+        <v>13.70213551727004</v>
       </c>
       <c r="C4">
-        <v>7.821821878730151</v>
+        <v>10.01696648558508</v>
       </c>
       <c r="D4">
-        <v>5.035760903383481</v>
+        <v>8.263874005294101</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.3287841935326</v>
+        <v>41.02636603321042</v>
       </c>
       <c r="G4">
-        <v>2.145348382116789</v>
+        <v>3.713844669992624</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.846499119844562</v>
+        <v>11.33099274025688</v>
       </c>
       <c r="K4">
-        <v>9.4407968044939</v>
+        <v>9.773831945026885</v>
       </c>
       <c r="L4">
-        <v>6.535237289035889</v>
+        <v>11.30246674823768</v>
       </c>
       <c r="M4">
-        <v>9.543497558180285</v>
+        <v>15.70819261401253</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>20.74709446697118</v>
+        <v>31.57020805053934</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.45893890311545</v>
+        <v>13.66175279381113</v>
       </c>
       <c r="C5">
-        <v>7.821817530272929</v>
+        <v>10.01679083377262</v>
       </c>
       <c r="D5">
-        <v>5.000583967961364</v>
+        <v>8.262575674668749</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.32616361573978</v>
+        <v>41.05473893987782</v>
       </c>
       <c r="G5">
-        <v>2.14666995462265</v>
+        <v>3.714360265701639</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.861219646235006</v>
+        <v>11.33688235894935</v>
       </c>
       <c r="K5">
-        <v>9.28074247880571</v>
+        <v>9.742597136911249</v>
       </c>
       <c r="L5">
-        <v>6.518982406230593</v>
+        <v>11.30536072068499</v>
       </c>
       <c r="M5">
-        <v>9.471301296973325</v>
+        <v>15.70488419558277</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>20.77387319820813</v>
+        <v>31.59555839726432</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.42416226101322</v>
+        <v>13.65507448078392</v>
       </c>
       <c r="C6">
-        <v>7.821827813772118</v>
+        <v>10.0167653543829</v>
       </c>
       <c r="D6">
-        <v>4.99474555480655</v>
+        <v>8.26237613770636</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>27.32599161558845</v>
+        <v>41.05956068038253</v>
       </c>
       <c r="G6">
-        <v>2.146890954769759</v>
+        <v>3.714446832822881</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.863684531653055</v>
+        <v>11.33787182386611</v>
       </c>
       <c r="K6">
-        <v>9.253885347552938</v>
+        <v>9.737425248630704</v>
       </c>
       <c r="L6">
-        <v>6.516312699994659</v>
+        <v>11.30585944471662</v>
       </c>
       <c r="M6">
-        <v>9.459310524244643</v>
+        <v>15.70436554906077</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>20.77850572106263</v>
+        <v>31.59984560852728</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.66367792738412</v>
+        <v>13.701589106237</v>
       </c>
       <c r="C7">
-        <v>7.821821080873651</v>
+        <v>10.01696386971802</v>
       </c>
       <c r="D7">
-        <v>5.035286346496219</v>
+        <v>8.26385542055921</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.32873112752293</v>
+        <v>41.02674127523918</v>
       </c>
       <c r="G7">
-        <v>2.145366101443882</v>
+        <v>3.713851559650607</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.84669626968071</v>
+        <v>11.33107139921041</v>
       </c>
       <c r="K7">
-        <v>9.438657080455966</v>
+        <v>9.773409742954934</v>
       </c>
       <c r="L7">
-        <v>6.535016103466328</v>
+        <v>11.30250455887572</v>
       </c>
       <c r="M7">
-        <v>9.542524137592313</v>
+        <v>15.70814593856298</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>20.7474430815918</v>
+        <v>31.5705447177399</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.67320212965788</v>
+        <v>13.91049148073714</v>
       </c>
       <c r="C8">
-        <v>7.823406895995485</v>
+        <v>10.01837328280367</v>
       </c>
       <c r="D8">
-        <v>5.214234579779663</v>
+        <v>8.27270520149054</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.37996188527398</v>
+        <v>40.8979813902405</v>
       </c>
       <c r="G8">
-        <v>2.138859616676654</v>
+        <v>3.711362913706171</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.774701588958856</v>
+        <v>11.30273049496842</v>
       </c>
       <c r="K8">
-        <v>10.21291756883859</v>
+        <v>9.934086706965624</v>
       </c>
       <c r="L8">
-        <v>6.621770325420677</v>
+        <v>11.29033840820968</v>
       </c>
       <c r="M8">
-        <v>9.908637649391675</v>
+        <v>15.72926939354787</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>20.63814130561181</v>
+        <v>31.45256103191173</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.47496382205991</v>
+        <v>14.33024036308497</v>
       </c>
       <c r="C9">
-        <v>7.83249125185415</v>
+        <v>10.02303030510562</v>
       </c>
       <c r="D9">
-        <v>5.562286362999966</v>
+        <v>8.298294176532755</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>27.62942702701474</v>
+        <v>40.70332444864407</v>
       </c>
       <c r="G9">
-        <v>2.126863613165412</v>
+        <v>3.706975993407841</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.644033491585819</v>
+        <v>11.25311524584119</v>
       </c>
       <c r="K9">
-        <v>11.58124310408742</v>
+        <v>10.25364566887857</v>
       </c>
       <c r="L9">
-        <v>6.806496921398255</v>
+        <v>11.27591688379726</v>
       </c>
       <c r="M9">
-        <v>10.61643459434725</v>
+        <v>15.7864211711472</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.53097417796523</v>
+        <v>31.2619101836838</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.74420535027174</v>
+        <v>14.64207485287662</v>
       </c>
       <c r="C10">
-        <v>7.842985598187544</v>
+        <v>10.02758547885549</v>
       </c>
       <c r="D10">
-        <v>5.813796231455402</v>
+        <v>8.322007402047674</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>27.91085458459434</v>
+        <v>40.59565170293505</v>
       </c>
       <c r="G10">
-        <v>2.118479228972507</v>
+        <v>3.704050551950063</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.554283836101293</v>
+        <v>11.22026541721034</v>
       </c>
       <c r="K10">
-        <v>12.49420715478754</v>
+        <v>10.48909865411634</v>
       </c>
       <c r="L10">
-        <v>6.950572120419982</v>
+        <v>11.27103144471979</v>
       </c>
       <c r="M10">
-        <v>11.1253396414008</v>
+        <v>15.83777354223189</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.52458224507259</v>
+        <v>31.14670101993051</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.31177959634984</v>
+        <v>14.78411374592527</v>
       </c>
       <c r="C11">
-        <v>7.848632759447612</v>
+        <v>10.0298995905776</v>
       </c>
       <c r="D11">
-        <v>5.926848337722488</v>
+        <v>8.333836801766163</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>28.06167899853168</v>
+        <v>40.55435551511913</v>
       </c>
       <c r="G11">
-        <v>2.114749666446631</v>
+        <v>3.702783660296766</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.51477819070605</v>
+        <v>11.20609673068249</v>
       </c>
       <c r="K11">
-        <v>12.88948624215888</v>
+        <v>10.59593066668795</v>
       </c>
       <c r="L11">
-        <v>7.017809077520061</v>
+        <v>11.27003899253023</v>
       </c>
       <c r="M11">
-        <v>11.35355292612206</v>
+        <v>15.86311516227385</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.53893901842995</v>
+        <v>31.0996958412807</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.52225610501134</v>
+        <v>14.83787970835728</v>
       </c>
       <c r="C12">
-        <v>7.850900694925642</v>
+        <v>10.03081029581983</v>
       </c>
       <c r="D12">
-        <v>5.969429444444141</v>
+        <v>8.338463800239465</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>28.12218664225352</v>
+        <v>40.53982338918863</v>
       </c>
       <c r="G12">
-        <v>2.113348797989249</v>
+        <v>3.702313061099749</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.500005891657165</v>
+        <v>11.20084233842701</v>
       </c>
       <c r="K12">
-        <v>13.0362960612887</v>
+        <v>10.63631054249683</v>
       </c>
       <c r="L12">
-        <v>7.043503523994707</v>
+        <v>11.26983912741171</v>
       </c>
       <c r="M12">
-        <v>11.43943485084339</v>
+        <v>15.87299134493993</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.54698931102332</v>
+        <v>31.08267389489446</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.47712335610936</v>
+        <v>14.82630192984431</v>
       </c>
       <c r="C13">
-        <v>7.85040643010428</v>
+        <v>10.0306126353535</v>
       </c>
       <c r="D13">
-        <v>5.960269533341141</v>
+        <v>8.337460774320885</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>28.10900251327826</v>
+        <v>40.54290394999028</v>
       </c>
       <c r="G13">
-        <v>2.113650003403373</v>
+        <v>3.702414007027128</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.503179064610936</v>
+        <v>11.20196903686975</v>
       </c>
       <c r="K13">
-        <v>13.00480557675897</v>
+        <v>10.62761790505798</v>
       </c>
       <c r="L13">
-        <v>7.037959557628072</v>
+        <v>11.26987436129323</v>
       </c>
       <c r="M13">
-        <v>11.42096348562286</v>
+        <v>15.87085196795174</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.54513717960209</v>
+        <v>31.08630526654369</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.32918453561724</v>
+        <v>14.78853779515099</v>
       </c>
       <c r="C14">
-        <v>7.848816725369434</v>
+        <v>10.02997382762605</v>
       </c>
       <c r="D14">
-        <v>5.930356285090784</v>
+        <v>8.334214526500681</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>28.06658833921099</v>
+        <v>40.55313778200509</v>
       </c>
       <c r="G14">
-        <v>2.114634191245708</v>
+        <v>3.702744760788092</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.513559118391325</v>
+        <v>11.20566222694844</v>
       </c>
       <c r="K14">
-        <v>12.90162190776198</v>
+        <v>10.59925444701413</v>
       </c>
       <c r="L14">
-        <v>7.019918360248909</v>
+        <v>11.27001902848818</v>
       </c>
       <c r="M14">
-        <v>11.36062959581657</v>
+        <v>15.86392210256577</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.53954817935955</v>
+        <v>31.0982798410078</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.23798959349015</v>
+        <v>14.76540203331236</v>
       </c>
       <c r="C15">
-        <v>7.847859968783405</v>
+        <v>10.02958700794635</v>
       </c>
       <c r="D15">
-        <v>5.912002765589831</v>
+        <v>8.332245236738403</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>28.04105373896932</v>
+        <v>40.55955033220688</v>
       </c>
       <c r="G15">
-        <v>2.115238501885485</v>
+        <v>3.702948546675843</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.519941563484332</v>
+        <v>11.20793885255492</v>
       </c>
       <c r="K15">
-        <v>12.83804499003861</v>
+        <v>10.58187019998926</v>
       </c>
       <c r="L15">
-        <v>7.008897671982167</v>
+        <v>11.27013052803121</v>
       </c>
       <c r="M15">
-        <v>11.32360157662707</v>
+        <v>15.85971365286363</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.53646906599114</v>
+        <v>31.10571594101413</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.70648722914728</v>
+        <v>14.63279189218244</v>
       </c>
       <c r="C16">
-        <v>7.842634441279452</v>
+        <v>10.02743908140948</v>
       </c>
       <c r="D16">
-        <v>5.806377670679911</v>
+        <v>8.321255091188515</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>27.9014665876652</v>
+        <v>40.59850521555281</v>
       </c>
       <c r="G16">
-        <v>2.118724605157115</v>
+        <v>3.704134628446826</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.556892012853746</v>
+        <v>11.22120692850722</v>
       </c>
       <c r="K16">
-        <v>12.46797207030239</v>
+        <v>10.48210832388084</v>
       </c>
       <c r="L16">
-        <v>6.946211246155053</v>
+        <v>11.271120976825</v>
       </c>
       <c r="M16">
-        <v>11.11035347224406</v>
+        <v>15.83615684947692</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.52400255318477</v>
+        <v>31.14988173202227</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.37244264834652</v>
+        <v>14.55145284037964</v>
       </c>
       <c r="C17">
-        <v>7.839655084309546</v>
+        <v>10.0261830880603</v>
       </c>
       <c r="D17">
-        <v>5.741206467000129</v>
+        <v>8.314778240617141</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>27.82175738352484</v>
+        <v>40.62437165748176</v>
       </c>
       <c r="G17">
-        <v>2.120884369411977</v>
+        <v>3.704878587378162</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.579896738883432</v>
+        <v>11.2295446084038</v>
       </c>
       <c r="K17">
-        <v>12.23581630294143</v>
+        <v>10.42081136384886</v>
       </c>
       <c r="L17">
-        <v>6.908181993373161</v>
+        <v>11.27204297272557</v>
       </c>
       <c r="M17">
-        <v>10.97864160372601</v>
+        <v>15.82220943582291</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.52086911506547</v>
+        <v>31.17836071063084</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.17735790372234</v>
+        <v>14.50468886068101</v>
       </c>
       <c r="C18">
-        <v>7.838023376740004</v>
+        <v>10.02548346982889</v>
       </c>
       <c r="D18">
-        <v>5.703595386862678</v>
+        <v>8.311151168949445</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>27.77805033779627</v>
+        <v>40.63997263859881</v>
       </c>
       <c r="G18">
-        <v>2.122134611230568</v>
+        <v>3.705312510680806</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.593253020992417</v>
+        <v>11.23441318153233</v>
       </c>
       <c r="K18">
-        <v>12.10040001333468</v>
+        <v>10.38553098418157</v>
       </c>
       <c r="L18">
-        <v>6.886468881248935</v>
+        <v>11.27268910728649</v>
       </c>
       <c r="M18">
-        <v>10.90257806906698</v>
+        <v>15.81437404542496</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.52068386956019</v>
+        <v>31.19524967679157</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.1107971434921</v>
+        <v>14.4888602948294</v>
       </c>
       <c r="C19">
-        <v>7.83748486798078</v>
+        <v>10.02525051818417</v>
       </c>
       <c r="D19">
-        <v>5.690840307389432</v>
+        <v>8.309940048970716</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>27.76361579492109</v>
+        <v>40.64537905954509</v>
       </c>
       <c r="G19">
-        <v>2.122559317313224</v>
+        <v>3.705460464580466</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.597796699159055</v>
+        <v>11.23607414128979</v>
       </c>
       <c r="K19">
-        <v>12.05422628202217</v>
+        <v>10.37358262417094</v>
       </c>
       <c r="L19">
-        <v>6.879145056247157</v>
+        <v>11.27292779776239</v>
       </c>
       <c r="M19">
-        <v>10.87677374111849</v>
+        <v>15.81175334809921</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.52089491894874</v>
+        <v>31.20105531952095</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.4083073241003</v>
+        <v>14.5601097891934</v>
       </c>
       <c r="C20">
-        <v>7.839963734212365</v>
+        <v>10.02631443422293</v>
       </c>
       <c r="D20">
-        <v>5.748157382126778</v>
+        <v>8.315457561790078</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>27.83002028177552</v>
+        <v>40.62154326637202</v>
       </c>
       <c r="G20">
-        <v>2.120653635665803</v>
+        <v>3.704798769182825</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.577434971644476</v>
+        <v>11.22864950026266</v>
       </c>
       <c r="K20">
-        <v>12.26072488922781</v>
+        <v>10.42733927135878</v>
       </c>
       <c r="L20">
-        <v>6.912213759003434</v>
+        <v>11.27193284350082</v>
       </c>
       <c r="M20">
-        <v>10.9926947552323</v>
+        <v>15.82367486511762</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.52103437695169</v>
+        <v>31.17527642939875</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.372758142007</v>
+        <v>14.79963098282074</v>
       </c>
       <c r="C21">
-        <v>7.849280113401901</v>
+        <v>10.03016053040625</v>
       </c>
       <c r="D21">
-        <v>5.939149002786829</v>
+        <v>8.335164045780271</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>28.0789534091776</v>
+        <v>40.5501018401649</v>
       </c>
       <c r="G21">
-        <v>2.114344807011113</v>
+        <v>3.70264736254589</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.510505172241583</v>
+        <v>11.20457443898995</v>
       </c>
       <c r="K21">
-        <v>12.93200736057718</v>
+        <v>10.60758779658875</v>
       </c>
       <c r="L21">
-        <v>7.025211250165715</v>
+        <v>11.26997176834754</v>
       </c>
       <c r="M21">
-        <v>11.37836618199598</v>
+        <v>15.86595001789593</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.54111781302429</v>
+        <v>31.09474150035393</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.97716108430741</v>
+        <v>14.9560277527909</v>
       </c>
       <c r="C22">
-        <v>7.856125658094292</v>
+        <v>10.03287451262167</v>
       </c>
       <c r="D22">
-        <v>6.062623735706117</v>
+        <v>8.348901698731519</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>28.26147745501001</v>
+        <v>40.50985662234763</v>
       </c>
       <c r="G22">
-        <v>2.110287913449743</v>
+        <v>3.701294578651262</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.467855210367633</v>
+        <v>11.1894866794701</v>
       </c>
       <c r="K22">
-        <v>13.35398605178542</v>
+        <v>10.72493728949309</v>
       </c>
       <c r="L22">
-        <v>7.100416591872377</v>
+        <v>11.26971523781574</v>
       </c>
       <c r="M22">
-        <v>11.62726768819581</v>
+        <v>15.89520802291011</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.56954056900123</v>
+        <v>31.04664175542575</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.65693395177686</v>
+        <v>14.87258447287483</v>
       </c>
       <c r="C23">
-        <v>7.852401440592746</v>
+        <v>10.03140780738581</v>
       </c>
       <c r="D23">
-        <v>5.996856544193183</v>
+        <v>8.341491939098836</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>28.16220932610382</v>
+        <v>40.53074626048272</v>
       </c>
       <c r="G23">
-        <v>2.112447337977047</v>
+        <v>3.702011723920263</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.490519139273461</v>
+        <v>11.19748027412674</v>
       </c>
       <c r="K23">
-        <v>13.1302962285622</v>
+        <v>10.66235854232338</v>
       </c>
       <c r="L23">
-        <v>7.060157558418156</v>
+        <v>11.26975866495666</v>
       </c>
       <c r="M23">
-        <v>11.49473231449559</v>
+        <v>15.87944516569533</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.55292721546245</v>
+        <v>31.07189834259014</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.39210237100911</v>
+        <v>14.55619598235048</v>
       </c>
       <c r="C24">
-        <v>7.839823941073855</v>
+        <v>10.02625498260762</v>
       </c>
       <c r="D24">
-        <v>5.745015317116263</v>
+        <v>8.315150139759352</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>27.8262780345127</v>
+        <v>40.62281970807989</v>
       </c>
       <c r="G24">
-        <v>2.120757923661672</v>
+        <v>3.704834835637421</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.57854752976567</v>
+        <v>11.22905394459554</v>
       </c>
       <c r="K24">
-        <v>12.24946978181275</v>
+        <v>10.42438812608075</v>
       </c>
       <c r="L24">
-        <v>6.910390528448475</v>
+        <v>11.27198227132336</v>
       </c>
       <c r="M24">
-        <v>10.98634238143643</v>
+        <v>15.82301177362193</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.52095463781912</v>
+        <v>31.17666922560824</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.00710234233472</v>
+        <v>14.21588665048513</v>
       </c>
       <c r="C25">
-        <v>7.829376593411244</v>
+        <v>10.02156989106384</v>
       </c>
       <c r="D25">
-        <v>5.468701754487463</v>
+        <v>8.29050067967755</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>27.54521854839728</v>
+        <v>40.74978283361654</v>
       </c>
       <c r="G25">
-        <v>2.130030767235302</v>
+        <v>3.708110281947549</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.678273364206562</v>
+        <v>11.26590258330987</v>
       </c>
       <c r="K25">
-        <v>11.22726418892266</v>
+        <v>10.16693098075878</v>
       </c>
       <c r="L25">
-        <v>6.755014995772951</v>
+        <v>11.2788122970115</v>
       </c>
       <c r="M25">
-        <v>10.42658057768321</v>
+        <v>15.76929854198071</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.54777839525959</v>
+        <v>31.3091230213392</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_194/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_194/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.96787706683382</v>
+        <v>12.93490242157301</v>
       </c>
       <c r="C2">
-        <v>10.01888404129415</v>
+        <v>7.824234803489717</v>
       </c>
       <c r="D2">
-        <v>8.275664005662895</v>
+        <v>5.262625044105921</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>40.86700472923994</v>
+        <v>27.40364606189772</v>
       </c>
       <c r="G2">
-        <v>3.710722115901969</v>
+        <v>2.137149612384081</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.29545613467541</v>
+        <v>6.755911941091192</v>
       </c>
       <c r="K2">
-        <v>9.978001582170828</v>
+        <v>10.41261003920413</v>
       </c>
       <c r="L2">
-        <v>11.28768206590767</v>
+        <v>6.646283726302283</v>
       </c>
       <c r="M2">
-        <v>15.73606501363036</v>
+        <v>10.00734887047033</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>31.42334705877943</v>
+        <v>20.6155245859581</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.80228454092903</v>
+        <v>12.16254280042973</v>
       </c>
       <c r="C3">
-        <v>10.01754690130858</v>
+        <v>7.822282367481588</v>
       </c>
       <c r="D3">
-        <v>8.267710291138874</v>
+        <v>5.122133371121941</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>40.9612298958267</v>
+        <v>27.34606015440227</v>
       </c>
       <c r="G3">
-        <v>3.712618085478408</v>
+        <v>2.142167864241917</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.31700655144978</v>
+        <v>6.81120805200012</v>
       </c>
       <c r="K3">
-        <v>9.851033364114198</v>
+        <v>9.82210818225105</v>
       </c>
       <c r="L3">
-        <v>11.2961030625683</v>
+        <v>6.576311460231999</v>
       </c>
       <c r="M3">
-        <v>15.71755528567898</v>
+        <v>9.720433076647316</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>31.51116197091622</v>
+        <v>20.68906244842886</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.70213551727004</v>
+        <v>11.66645508541032</v>
       </c>
       <c r="C4">
-        <v>10.01696648558508</v>
+        <v>7.821821878730286</v>
       </c>
       <c r="D4">
-        <v>8.263874005294101</v>
+        <v>5.035760903383498</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>41.02636603321042</v>
+        <v>27.3287841935325</v>
       </c>
       <c r="G4">
-        <v>3.713844669992624</v>
+        <v>2.14534838211679</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.33099274025688</v>
+        <v>6.846499119844402</v>
       </c>
       <c r="K4">
-        <v>9.773831945026885</v>
+        <v>9.440796804493925</v>
       </c>
       <c r="L4">
-        <v>11.30246674823768</v>
+        <v>6.535237289035814</v>
       </c>
       <c r="M4">
-        <v>15.70819261401253</v>
+        <v>9.543497558180217</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>31.57020805053934</v>
+        <v>20.74709446697105</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.66175279381113</v>
+        <v>11.45893890311542</v>
       </c>
       <c r="C5">
-        <v>10.01679083377262</v>
+        <v>7.821817530272932</v>
       </c>
       <c r="D5">
-        <v>8.262575674668749</v>
+        <v>5.00058396796133</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>41.05473893987782</v>
+        <v>27.32616361573949</v>
       </c>
       <c r="G5">
-        <v>3.714360265701639</v>
+        <v>2.146669954622515</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.33688235894935</v>
+        <v>6.861219646234976</v>
       </c>
       <c r="K5">
-        <v>9.742597136911249</v>
+        <v>9.280742478805756</v>
       </c>
       <c r="L5">
-        <v>11.30536072068499</v>
+        <v>6.518982406230498</v>
       </c>
       <c r="M5">
-        <v>15.70488419558277</v>
+        <v>9.471301296973305</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>31.59555839726432</v>
+        <v>20.77387319820789</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.65507448078392</v>
+        <v>11.42416226101322</v>
       </c>
       <c r="C6">
-        <v>10.0167653543829</v>
+        <v>7.821827813772256</v>
       </c>
       <c r="D6">
-        <v>8.26237613770636</v>
+        <v>4.994745554806636</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>41.05956068038253</v>
+        <v>27.32599161558851</v>
       </c>
       <c r="G6">
-        <v>3.714446832822881</v>
+        <v>2.146890954770159</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.33787182386611</v>
+        <v>6.86368453165309</v>
       </c>
       <c r="K6">
-        <v>9.737425248630704</v>
+        <v>9.253885347552941</v>
       </c>
       <c r="L6">
-        <v>11.30585944471662</v>
+        <v>6.516312699994717</v>
       </c>
       <c r="M6">
-        <v>15.70436554906077</v>
+        <v>9.459310524244714</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>31.59984560852728</v>
+        <v>20.77850572106264</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.701589106237</v>
+        <v>11.66367792738411</v>
       </c>
       <c r="C7">
-        <v>10.01696386971802</v>
+        <v>7.82182108087392</v>
       </c>
       <c r="D7">
-        <v>8.26385542055921</v>
+        <v>5.035286346496261</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>41.02674127523918</v>
+        <v>27.32873112752281</v>
       </c>
       <c r="G7">
-        <v>3.713851559650607</v>
+        <v>2.145366101443481</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.33107139921041</v>
+        <v>6.846696269680708</v>
       </c>
       <c r="K7">
-        <v>9.773409742954934</v>
+        <v>9.438657080455984</v>
       </c>
       <c r="L7">
-        <v>11.30250455887572</v>
+        <v>6.535016103466328</v>
       </c>
       <c r="M7">
-        <v>15.70814593856298</v>
+        <v>9.542524137592329</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>31.5705447177399</v>
+        <v>20.74744308159165</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.91049148073714</v>
+        <v>12.67320212965787</v>
       </c>
       <c r="C8">
-        <v>10.01837328280367</v>
+        <v>7.823406895995885</v>
       </c>
       <c r="D8">
-        <v>8.27270520149054</v>
+        <v>5.214234579779669</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>40.8979813902405</v>
+        <v>27.3799618852738</v>
       </c>
       <c r="G8">
-        <v>3.711362913706171</v>
+        <v>2.138859616676788</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.30273049496842</v>
+        <v>6.774701588958757</v>
       </c>
       <c r="K8">
-        <v>9.934086706965624</v>
+        <v>10.21291756883864</v>
       </c>
       <c r="L8">
-        <v>11.29033840820968</v>
+        <v>6.621770325420598</v>
       </c>
       <c r="M8">
-        <v>15.72926939354787</v>
+        <v>9.908637649391624</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>31.45256103191173</v>
+        <v>20.6381413056116</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.33024036308497</v>
+        <v>14.47496382205993</v>
       </c>
       <c r="C9">
-        <v>10.02303030510562</v>
+        <v>7.832491251854412</v>
       </c>
       <c r="D9">
-        <v>8.298294176532755</v>
+        <v>5.562286362999915</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.70332444864407</v>
+        <v>27.62942702701447</v>
       </c>
       <c r="G9">
-        <v>3.706975993407841</v>
+        <v>2.126863613165277</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.25311524584119</v>
+        <v>6.644033491585942</v>
       </c>
       <c r="K9">
-        <v>10.25364566887857</v>
+        <v>11.58124310408751</v>
       </c>
       <c r="L9">
-        <v>11.27591688379726</v>
+        <v>6.806496921398235</v>
       </c>
       <c r="M9">
-        <v>15.7864211711472</v>
+        <v>10.61643459434725</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>31.2619101836838</v>
+        <v>20.53097417796504</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.64207485287662</v>
+        <v>15.74420535027175</v>
       </c>
       <c r="C10">
-        <v>10.02758547885549</v>
+        <v>7.842985598187679</v>
       </c>
       <c r="D10">
-        <v>8.322007402047674</v>
+        <v>5.813796231455446</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>40.59565170293505</v>
+        <v>27.9108545845944</v>
       </c>
       <c r="G10">
-        <v>3.704050551950063</v>
+        <v>2.118479228972371</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.22026541721034</v>
+        <v>6.554283836101321</v>
       </c>
       <c r="K10">
-        <v>10.48909865411634</v>
+        <v>12.49420715478752</v>
       </c>
       <c r="L10">
-        <v>11.27103144471979</v>
+        <v>6.950572120419994</v>
       </c>
       <c r="M10">
-        <v>15.83777354223189</v>
+        <v>11.1253396414008</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>31.14670101993051</v>
+        <v>20.52458224507263</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.78411374592527</v>
+        <v>16.31177959634987</v>
       </c>
       <c r="C11">
-        <v>10.0298995905776</v>
+        <v>7.848632759447501</v>
       </c>
       <c r="D11">
-        <v>8.333836801766163</v>
+        <v>5.926848337722497</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>40.55435551511913</v>
+        <v>28.06167899853158</v>
       </c>
       <c r="G11">
-        <v>3.702783660296766</v>
+        <v>2.114749666446632</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.20609673068249</v>
+        <v>6.51477819070602</v>
       </c>
       <c r="K11">
-        <v>10.59593066668795</v>
+        <v>12.88948624215891</v>
       </c>
       <c r="L11">
-        <v>11.27003899253023</v>
+        <v>7.017809077520037</v>
       </c>
       <c r="M11">
-        <v>15.86311516227385</v>
+        <v>11.35355292612205</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>31.0996958412807</v>
+        <v>20.53893901842987</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.83787970835728</v>
+        <v>16.52225610501137</v>
       </c>
       <c r="C12">
-        <v>10.03081029581983</v>
+        <v>7.850900694925635</v>
       </c>
       <c r="D12">
-        <v>8.338463800239465</v>
+        <v>5.969429444444085</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>40.53982338918863</v>
+        <v>28.12218664225336</v>
       </c>
       <c r="G12">
-        <v>3.702313061099749</v>
+        <v>2.113348797989114</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.20084233842701</v>
+        <v>6.500005891657097</v>
       </c>
       <c r="K12">
-        <v>10.63631054249683</v>
+        <v>13.03629606128874</v>
       </c>
       <c r="L12">
-        <v>11.26983912741171</v>
+        <v>7.043503523994615</v>
       </c>
       <c r="M12">
-        <v>15.87299134493993</v>
+        <v>11.43943485084334</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>31.08267389489446</v>
+        <v>20.54698931102321</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.82630192984431</v>
+        <v>16.4771233561094</v>
       </c>
       <c r="C13">
-        <v>10.0306126353535</v>
+        <v>7.85040643010492</v>
       </c>
       <c r="D13">
-        <v>8.337460774320885</v>
+        <v>5.96026953334118</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>40.54290394999028</v>
+        <v>28.10900251327808</v>
       </c>
       <c r="G13">
-        <v>3.702414007027128</v>
+        <v>2.113650003403642</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.20196903686975</v>
+        <v>6.503179064610936</v>
       </c>
       <c r="K13">
-        <v>10.62761790505798</v>
+        <v>13.00480557675911</v>
       </c>
       <c r="L13">
-        <v>11.26987436129323</v>
+        <v>7.037959557627984</v>
       </c>
       <c r="M13">
-        <v>15.87085196795174</v>
+        <v>11.42096348562279</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>31.08630526654369</v>
+        <v>20.54513717960187</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.78853779515099</v>
+        <v>16.32918453561722</v>
       </c>
       <c r="C14">
-        <v>10.02997382762605</v>
+        <v>7.848816725369309</v>
       </c>
       <c r="D14">
-        <v>8.334214526500681</v>
+        <v>5.930356285090813</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>40.55313778200509</v>
+        <v>28.06658833921108</v>
       </c>
       <c r="G14">
-        <v>3.702744760788092</v>
+        <v>2.114634191245709</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.20566222694844</v>
+        <v>6.513559118391298</v>
       </c>
       <c r="K14">
-        <v>10.59925444701413</v>
+        <v>12.90162190776195</v>
       </c>
       <c r="L14">
-        <v>11.27001902848818</v>
+        <v>7.019918360248885</v>
       </c>
       <c r="M14">
-        <v>15.86392210256577</v>
+        <v>11.36062959581656</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>31.0982798410078</v>
+        <v>20.53954817935963</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.76540203331236</v>
+        <v>16.23798959349012</v>
       </c>
       <c r="C15">
-        <v>10.02958700794635</v>
+        <v>7.847859968783672</v>
       </c>
       <c r="D15">
-        <v>8.332245236738403</v>
+        <v>5.912002765589853</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>40.55955033220688</v>
+        <v>28.04105373896932</v>
       </c>
       <c r="G15">
-        <v>3.702948546675843</v>
+        <v>2.115238501885484</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.20793885255492</v>
+        <v>6.519941563484428</v>
       </c>
       <c r="K15">
-        <v>10.58187019998926</v>
+        <v>12.83804499003862</v>
       </c>
       <c r="L15">
-        <v>11.27013052803121</v>
+        <v>7.008897671982216</v>
       </c>
       <c r="M15">
-        <v>15.85971365286363</v>
+        <v>11.32360157662709</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>31.10571594101413</v>
+        <v>20.53646906599116</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.63279189218244</v>
+        <v>15.70648722914727</v>
       </c>
       <c r="C16">
-        <v>10.02743908140948</v>
+        <v>7.842634441279592</v>
       </c>
       <c r="D16">
-        <v>8.321255091188515</v>
+        <v>5.80637767067986</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>40.59850521555281</v>
+        <v>27.90146658766512</v>
       </c>
       <c r="G16">
-        <v>3.704134628446826</v>
+        <v>2.118724605157113</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.22120692850722</v>
+        <v>6.556892012853907</v>
       </c>
       <c r="K16">
-        <v>10.48210832388084</v>
+        <v>12.46797207030241</v>
       </c>
       <c r="L16">
-        <v>11.271120976825</v>
+        <v>6.946211246155045</v>
       </c>
       <c r="M16">
-        <v>15.83615684947692</v>
+        <v>11.11035347224407</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>31.14988173202227</v>
+        <v>20.52400255318473</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.55145284037964</v>
+        <v>15.3724426483465</v>
       </c>
       <c r="C17">
-        <v>10.0261830880603</v>
+        <v>7.839655084309954</v>
       </c>
       <c r="D17">
-        <v>8.314778240617141</v>
+        <v>5.741206467000205</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>40.62437165748176</v>
+        <v>27.82175738352474</v>
       </c>
       <c r="G17">
-        <v>3.704878587378162</v>
+        <v>2.120884369411845</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.2295446084038</v>
+        <v>6.579896738883366</v>
       </c>
       <c r="K17">
-        <v>10.42081136384886</v>
+        <v>12.23581630294147</v>
       </c>
       <c r="L17">
-        <v>11.27204297272557</v>
+        <v>6.908181993373079</v>
       </c>
       <c r="M17">
-        <v>15.82220943582291</v>
+        <v>10.97864160372601</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>31.17836071063084</v>
+        <v>20.52086911506538</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.50468886068101</v>
+        <v>15.17735790372232</v>
       </c>
       <c r="C18">
-        <v>10.02548346982889</v>
+        <v>7.838023376740133</v>
       </c>
       <c r="D18">
-        <v>8.311151168949445</v>
+        <v>5.703595386862616</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>40.63997263859881</v>
+        <v>27.77805033779623</v>
       </c>
       <c r="G18">
-        <v>3.705312510680806</v>
+        <v>2.12213461123097</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.23441318153233</v>
+        <v>6.593253020992511</v>
       </c>
       <c r="K18">
-        <v>10.38553098418157</v>
+        <v>12.10040001333473</v>
       </c>
       <c r="L18">
-        <v>11.27268910728649</v>
+        <v>6.886468881248884</v>
       </c>
       <c r="M18">
-        <v>15.81437404542496</v>
+        <v>10.90257806906698</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>31.19524967679157</v>
+        <v>20.52068386956021</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.4888602948294</v>
+        <v>15.11079714349209</v>
       </c>
       <c r="C19">
-        <v>10.02525051818417</v>
+        <v>7.837484867980911</v>
       </c>
       <c r="D19">
-        <v>8.309940048970716</v>
+        <v>5.690840307389249</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>40.64537905954509</v>
+        <v>27.76361579492099</v>
       </c>
       <c r="G19">
-        <v>3.705460464580466</v>
+        <v>2.122559317312957</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.23607414128979</v>
+        <v>6.597796699159154</v>
       </c>
       <c r="K19">
-        <v>10.37358262417094</v>
+        <v>12.05422628202217</v>
       </c>
       <c r="L19">
-        <v>11.27292779776239</v>
+        <v>6.879145056247133</v>
       </c>
       <c r="M19">
-        <v>15.81175334809921</v>
+        <v>10.87677374111849</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>31.20105531952095</v>
+        <v>20.52089491894872</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.5601097891934</v>
+        <v>15.40830732410031</v>
       </c>
       <c r="C20">
-        <v>10.02631443422293</v>
+        <v>7.839963734212755</v>
       </c>
       <c r="D20">
-        <v>8.315457561790078</v>
+        <v>5.748157382126683</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>40.62154326637202</v>
+        <v>27.83002028177532</v>
       </c>
       <c r="G20">
-        <v>3.704798769182825</v>
+        <v>2.120653635666069</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.22864950026266</v>
+        <v>6.577434971644575</v>
       </c>
       <c r="K20">
-        <v>10.42733927135878</v>
+        <v>12.26072488922789</v>
       </c>
       <c r="L20">
-        <v>11.27193284350082</v>
+        <v>6.912213759003401</v>
       </c>
       <c r="M20">
-        <v>15.82367486511762</v>
+        <v>10.99269475523227</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>31.17527642939875</v>
+        <v>20.52103437695155</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.79963098282074</v>
+        <v>16.37275814200705</v>
       </c>
       <c r="C21">
-        <v>10.03016053040625</v>
+        <v>7.849280113401767</v>
       </c>
       <c r="D21">
-        <v>8.335164045780271</v>
+        <v>5.939149002786793</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>40.5501018401649</v>
+        <v>28.07895340917727</v>
       </c>
       <c r="G21">
-        <v>3.70264736254589</v>
+        <v>2.114344807011247</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.20457443898995</v>
+        <v>6.51050517224158</v>
       </c>
       <c r="K21">
-        <v>10.60758779658875</v>
+        <v>12.93200736057724</v>
       </c>
       <c r="L21">
-        <v>11.26997176834754</v>
+        <v>7.025211250165619</v>
       </c>
       <c r="M21">
-        <v>15.86595001789593</v>
+        <v>11.3783661819959</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>31.09474150035393</v>
+        <v>20.54111781302408</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.9560277527909</v>
+        <v>16.97716108430741</v>
       </c>
       <c r="C22">
-        <v>10.03287451262167</v>
+        <v>7.856125658094163</v>
       </c>
       <c r="D22">
-        <v>8.348901698731519</v>
+        <v>6.062623735706068</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>40.50985662234763</v>
+        <v>28.26147745500994</v>
       </c>
       <c r="G22">
-        <v>3.701294578651262</v>
+        <v>2.110287913449477</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.1894866794701</v>
+        <v>6.467855210367668</v>
       </c>
       <c r="K22">
-        <v>10.72493728949309</v>
+        <v>13.35398605178539</v>
       </c>
       <c r="L22">
-        <v>11.26971523781574</v>
+        <v>7.100416591872396</v>
       </c>
       <c r="M22">
-        <v>15.89520802291011</v>
+        <v>11.6272676881958</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>31.04664175542575</v>
+        <v>20.56954056900119</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.87258447287483</v>
+        <v>16.6569339517768</v>
       </c>
       <c r="C23">
-        <v>10.03140780738581</v>
+        <v>7.852401440593271</v>
       </c>
       <c r="D23">
-        <v>8.341491939098836</v>
+        <v>5.99685654419342</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>40.53074626048272</v>
+        <v>28.16220932610384</v>
       </c>
       <c r="G23">
-        <v>3.702011723920263</v>
+        <v>2.112447337977178</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.19748027412674</v>
+        <v>6.49051913927343</v>
       </c>
       <c r="K23">
-        <v>10.66235854232338</v>
+        <v>13.1302962285622</v>
       </c>
       <c r="L23">
-        <v>11.26975866495666</v>
+        <v>7.060157558418203</v>
       </c>
       <c r="M23">
-        <v>15.87944516569533</v>
+        <v>11.49473231449563</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>31.07189834259014</v>
+        <v>20.55292721546233</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.55619598235048</v>
+        <v>15.39210237100915</v>
       </c>
       <c r="C24">
-        <v>10.02625498260762</v>
+        <v>7.839823941073851</v>
       </c>
       <c r="D24">
-        <v>8.315150139759352</v>
+        <v>5.745015317116332</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>40.62281970807989</v>
+        <v>27.82627803451256</v>
       </c>
       <c r="G24">
-        <v>3.704834835637421</v>
+        <v>2.120757923661939</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.22905394459554</v>
+        <v>6.578547529765738</v>
       </c>
       <c r="K24">
-        <v>10.42438812608075</v>
+        <v>12.24946978181277</v>
       </c>
       <c r="L24">
-        <v>11.27198227132336</v>
+        <v>6.910390528448546</v>
       </c>
       <c r="M24">
-        <v>15.82301177362193</v>
+        <v>10.98634238143645</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>31.17666922560824</v>
+        <v>20.52095463781896</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.21588665048513</v>
+        <v>14.00710234233473</v>
       </c>
       <c r="C25">
-        <v>10.02156989106384</v>
+        <v>7.829376593411104</v>
       </c>
       <c r="D25">
-        <v>8.29050067967755</v>
+        <v>5.468701754487456</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>40.74978283361654</v>
+        <v>27.54521854839717</v>
       </c>
       <c r="G25">
-        <v>3.708110281947549</v>
+        <v>2.130030767235167</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.26590258330987</v>
+        <v>6.678273364206532</v>
       </c>
       <c r="K25">
-        <v>10.16693098075878</v>
+        <v>11.22726418892269</v>
       </c>
       <c r="L25">
-        <v>11.2788122970115</v>
+        <v>6.755014995772912</v>
       </c>
       <c r="M25">
-        <v>15.76929854198071</v>
+        <v>10.4265805776832</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>31.3091230213392</v>
+        <v>20.54777839525948</v>
       </c>
     </row>
   </sheetData>
